--- a/Accounts-Schedules/تدريب طلبات 1-12-2025.xlsx
+++ b/Accounts-Schedules/تدريب طلبات 1-12-2025.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$B$2:$I$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$B$2:$I$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="123">
   <si>
     <t>Here is the list of trainees scheduled for training at Talabat on Monday, December 1st, from 10 AM to 7 AM.</t>
   </si>
@@ -288,15 +288,66 @@
     <t>Talabat Training</t>
   </si>
   <si>
+    <t>مريم حسن</t>
+  </si>
+  <si>
+    <t>؟</t>
+  </si>
+  <si>
+    <t>أحمد محمد سامي</t>
+  </si>
+  <si>
+    <t>خليل حسن</t>
+  </si>
+  <si>
+    <t>زينا نادر عبد المنعم</t>
+  </si>
+  <si>
+    <t>العبور</t>
+  </si>
+  <si>
+    <t>مزن صلاح الدين</t>
+  </si>
+  <si>
+    <t>احمد ابراهيم</t>
+  </si>
+  <si>
+    <t>أنس أيمن الخضر علي</t>
+  </si>
+  <si>
+    <t>دهب محمد</t>
+  </si>
+  <si>
+    <t>حذيفة قنديل</t>
+  </si>
+  <si>
+    <t>حلوان و زهراء المعادي</t>
+  </si>
+  <si>
+    <t>مدخل حلوان</t>
+  </si>
+  <si>
+    <t>محمد عبدون</t>
+  </si>
+  <si>
+    <t>سلم البارون</t>
+  </si>
+  <si>
+    <t>رقية هاشم</t>
+  </si>
+  <si>
+    <t>دائري</t>
+  </si>
+  <si>
+    <t>مينا شهدي</t>
+  </si>
+  <si>
+    <t>يمنى امير عبد الله</t>
+  </si>
+  <si>
     <t>محمد العزب</t>
   </si>
   <si>
-    <t>رقية هاشم</t>
-  </si>
-  <si>
-    <t>دائري</t>
-  </si>
-  <si>
     <t>محمد عماد</t>
   </si>
   <si>
@@ -306,7 +357,37 @@
     <t>اسلام عربي</t>
   </si>
   <si>
-    <t>أحمد محمد سامي</t>
+    <t>فاطمة الزين</t>
+  </si>
+  <si>
+    <t>خالد وليد</t>
+  </si>
+  <si>
+    <t>محمد علي</t>
+  </si>
+  <si>
+    <t>روان إسمارت</t>
+  </si>
+  <si>
+    <t>ريم عباس</t>
+  </si>
+  <si>
+    <t>ايماك لطف الله</t>
+  </si>
+  <si>
+    <t>كشري هند الحي العاشر</t>
+  </si>
+  <si>
+    <t>مرام حسن</t>
+  </si>
+  <si>
+    <t>هزار حافظ</t>
+  </si>
+  <si>
+    <t>بدر الدين مرتضى</t>
+  </si>
+  <si>
+    <t>و - مدينتي</t>
   </si>
   <si>
     <t>محمد رمضان</t>
@@ -315,79 +396,10 @@
     <t>ي - المعادي</t>
   </si>
   <si>
-    <t>روان إسمارت</t>
-  </si>
-  <si>
-    <t>ريم عباس</t>
-  </si>
-  <si>
-    <t>مينا شهدي</t>
-  </si>
-  <si>
-    <t>أنس أيمن الخضر علي</t>
-  </si>
-  <si>
-    <t>بدر الدين مرتضى</t>
-  </si>
-  <si>
-    <t>و - مدينتي</t>
-  </si>
-  <si>
-    <t>امنة امير</t>
-  </si>
-  <si>
-    <t>دهب محمد</t>
-  </si>
-  <si>
-    <t>احمد ابراهيم</t>
-  </si>
-  <si>
-    <t>حذيفة قنديل</t>
-  </si>
-  <si>
-    <t>حلوان و زهراء المعادي</t>
-  </si>
-  <si>
-    <t>زينا نادر عبد المنعم</t>
-  </si>
-  <si>
-    <t>العبور</t>
-  </si>
-  <si>
-    <t>محمد عبدون</t>
-  </si>
-  <si>
-    <t>محمد علي</t>
-  </si>
-  <si>
-    <t>ايماك لطف الله</t>
-  </si>
-  <si>
-    <t>كشري هند الحي العاشر</t>
-  </si>
-  <si>
-    <t>مزن صلاح الدين</t>
-  </si>
-  <si>
     <t>خلود عريكات</t>
   </si>
   <si>
     <t>ي - بدر</t>
-  </si>
-  <si>
-    <t>فاطمة الزين</t>
-  </si>
-  <si>
-    <t>خالد وليد</t>
-  </si>
-  <si>
-    <t>مرام حسن</t>
-  </si>
-  <si>
-    <t>هزار حافظ</t>
-  </si>
-  <si>
-    <t>خليل حسن</t>
   </si>
 </sst>
 </file>
@@ -1243,7 +1255,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1262,15 +1274,15 @@
     <xf numFmtId="178" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -1339,6 +1351,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1873,10 +1891,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:E31"/>
+      <selection activeCell="A33" sqref="A33:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -2455,6 +2473,27 @@
         <v>11</v>
       </c>
     </row>
+    <row r="32" ht="15.25"/>
+    <row r="33" ht="15.25" spans="1:6">
+      <c r="A33" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="33">
+        <v>1157054749</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="33" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2464,10 +2503,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:I29"/>
+  <dimension ref="B1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="B3:H29"/>
+      <selection activeCell="H30" sqref="B3:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -2522,8 +2561,8 @@
       <c r="C3" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>64</v>
+      <c r="D3" s="6">
+        <v>1157054749</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>84</v>
@@ -2531,43 +2570,43 @@
       <c r="F3" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>65</v>
+      <c r="G3" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" ht="15.25" spans="2:9">
       <c r="B4" s="5">
         <v>0.416666666666667</v>
       </c>
       <c r="C4" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D4" s="6">
-        <v>1069684801</v>
+      <c r="D4" s="8">
+        <v>1557735376</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>55</v>
+      <c r="G4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="15.25" spans="2:9">
       <c r="B5" s="5">
         <v>0.416666666666667</v>
       </c>
@@ -2575,7 +2614,7 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D5" s="6">
-        <v>1554563805</v>
+        <v>1069487347</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>84</v>
@@ -2583,17 +2622,17 @@
       <c r="F5" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>40</v>
+      <c r="G5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" ht="15.25" spans="2:9">
       <c r="B6" s="5">
         <v>0.416666666666667</v>
       </c>
@@ -2601,7 +2640,7 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D6" s="8">
-        <v>1061512549</v>
+        <v>1070454217</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>84</v>
@@ -2609,103 +2648,103 @@
       <c r="F6" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>62</v>
+      <c r="G6" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" ht="15.25" spans="2:9">
       <c r="B7" s="5">
         <v>0.416666666666667</v>
       </c>
       <c r="C7" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D7" s="6">
-        <v>1129703492</v>
+      <c r="D7" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>62</v>
+        <v>91</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" ht="15.25" spans="2:9">
       <c r="B8" s="5">
         <v>0.416666666666667</v>
       </c>
       <c r="C8" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D8" s="6">
-        <v>1557735376</v>
+      <c r="D8" s="8">
+        <v>1000037062</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>17</v>
+        <v>92</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" ht="15.25" spans="2:9">
       <c r="B9" s="5">
         <v>0.416666666666667</v>
       </c>
       <c r="C9" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D9" s="6">
-        <v>1126291393</v>
+      <c r="D9" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>79</v>
+      <c r="G9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" ht="15.25" spans="2:9">
       <c r="B10" s="5">
         <v>0.416666666666667</v>
       </c>
       <c r="C10" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D10" s="6">
-        <v>1558822005</v>
+      <c r="D10" s="8">
+        <v>1121670258</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>84</v>
@@ -2713,14 +2752,14 @@
       <c r="F10" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>28</v>
+      <c r="G10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:9">
@@ -2730,8 +2769,8 @@
       <c r="C11" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D11" s="6">
-        <v>1555119737</v>
+      <c r="D11" s="8">
+        <v>1044744639</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>84</v>
@@ -2739,173 +2778,173 @@
       <c r="F11" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>28</v>
+      <c r="G11" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" ht="15.25" spans="2:9">
       <c r="B12" s="5">
         <v>0.416666666666667</v>
       </c>
       <c r="C12" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>70</v>
+      <c r="D12" s="8">
+        <v>1288271110</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>71</v>
+      <c r="H12" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" ht="15.25" spans="2:9">
       <c r="B13" s="5">
         <v>0.416666666666667</v>
       </c>
       <c r="C13" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>47</v>
+      <c r="D13" s="8">
+        <v>1069684801</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>45</v>
+        <v>100</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" ht="15.25" spans="2:9">
       <c r="B14" s="5">
         <v>0.416666666666667</v>
       </c>
       <c r="C14" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D14" s="6">
-        <v>1500948744</v>
+      <c r="D14" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>45</v>
+        <v>102</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" ht="15.25" spans="2:9">
       <c r="B15" s="5">
         <v>0.416666666666667</v>
       </c>
       <c r="C15" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="8">
         <v>1223429209</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>58</v>
+        <v>103</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" ht="15.25" spans="2:9">
       <c r="B16" s="5">
         <v>0.416666666666667</v>
       </c>
       <c r="C16" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D16" s="6">
-        <v>1121670258</v>
+      <c r="D16" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>14</v>
+        <v>104</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" ht="15.25" spans="2:9">
       <c r="B17" s="5">
         <v>0.416666666666667</v>
       </c>
       <c r="C17" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D17" s="6">
-        <v>1000037062</v>
+      <c r="D17" s="8">
+        <v>1554563805</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>32</v>
+        <v>105</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" ht="15.25" spans="2:9">
       <c r="B18" s="5">
         <v>0.416666666666667</v>
       </c>
@@ -2913,25 +2952,25 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D18" s="6">
-        <v>1044744639</v>
+        <v>1061512549</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>43</v>
+        <v>106</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" ht="15.25" spans="2:9">
       <c r="B19" s="5">
         <v>0.416666666666667</v>
       </c>
@@ -2939,111 +2978,111 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D19" s="9">
-        <v>1070454217</v>
+        <v>1129703492</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" ht="15.25" spans="2:9">
       <c r="B20" s="5">
         <v>0.416666666666667</v>
       </c>
       <c r="C20" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D20" s="6">
-        <v>1288271110</v>
+      <c r="D20" s="8">
+        <v>1155645885</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>35</v>
+        <v>108</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" ht="15.25" spans="2:9">
       <c r="B21" s="5">
         <v>0.416666666666667</v>
       </c>
       <c r="C21" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D21" s="6">
-        <v>1066097770</v>
+      <c r="D21" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>68</v>
+        <v>109</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" ht="15.25" spans="2:9">
       <c r="B22" s="5">
         <v>0.416666666666667</v>
       </c>
       <c r="C22" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D22" s="6">
-        <v>1158243126</v>
+      <c r="D22" s="8">
+        <v>1066097770</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" s="6" t="s">
         <v>110</v>
       </c>
+      <c r="G22" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="I22" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" ht="15.25" spans="2:9">
       <c r="B23" s="5">
         <v>0.416666666666667</v>
       </c>
       <c r="C23" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>21</v>
+      <c r="D23" s="8">
+        <v>1558822005</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>84</v>
@@ -3051,25 +3090,25 @@
       <c r="F23" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="G23" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>23</v>
+      <c r="G23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" ht="15.25" spans="2:9">
       <c r="B24" s="5">
         <v>0.416666666666667</v>
       </c>
       <c r="C24" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D24" s="6">
-        <v>1553908592</v>
+      <c r="D24" s="8">
+        <v>1555119737</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>84</v>
@@ -3077,51 +3116,51 @@
       <c r="F24" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>38</v>
+      <c r="G24" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" ht="15.25" spans="2:9">
       <c r="B25" s="5">
         <v>0.416666666666667</v>
       </c>
       <c r="C25" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D25" s="6">
-        <v>1155645885</v>
+      <c r="D25" s="8">
+        <v>1158243126</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F25" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="I25" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" ht="15.25" spans="2:9">
       <c r="B26" s="5">
         <v>0.416666666666667</v>
       </c>
       <c r="C26" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>49</v>
+      <c r="D26" s="8">
+        <v>1157054749</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>84</v>
@@ -3129,25 +3168,25 @@
       <c r="F26" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="G26" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>26</v>
+      <c r="G26" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" ht="15.25" spans="2:9">
       <c r="B27" s="5">
         <v>0.416666666666667</v>
       </c>
       <c r="C27" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D27" s="6">
-        <v>1157054749</v>
+      <c r="D27" s="8">
+        <v>1500081679</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>84</v>
@@ -3155,25 +3194,25 @@
       <c r="F27" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="8" t="s">
         <v>10</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" ht="15.25" spans="2:9">
       <c r="B28" s="5">
         <v>0.416666666666667</v>
       </c>
       <c r="C28" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D28" s="6">
-        <v>1500081679</v>
+      <c r="D28" s="8">
+        <v>1500948744</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>84</v>
@@ -3181,17 +3220,17 @@
       <c r="F28" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="G28" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>10</v>
+      <c r="G28" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" ht="15.25" spans="2:9">
       <c r="B29" s="5">
         <v>0.416666666666667</v>
       </c>
@@ -3199,28 +3238,54 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D29" s="8">
-        <v>1069487347</v>
+        <v>1126291393</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>60</v>
+        <v>119</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>59</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" ht="15.25" spans="2:9">
+      <c r="B30" s="5">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1553908592</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B2:I29" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="B3:I29">
-      <sortCondition ref="H2"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B2:I30" etc:filterBottomFollowUsedRange="0">
+    <sortState ref="B2:I30">
+      <sortCondition ref="G2"/>
     </sortState>
     <extLst/>
   </autoFilter>
